--- a/assets/dataFiles/Minimum Charges Day Rent (KM Basis).xlsx
+++ b/assets/dataFiles/Minimum Charges Day Rent (KM Basis).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\slidertest\excelfetch\1. OUR TARIFFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74460A-DBF2-4C78-BF1B-7AE2F38A5D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC85E9E-C115-4028-ABBE-A47C84B2D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D1699FA9-CFAB-461D-883D-9EA6750F133F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D1699FA9-CFAB-461D-883D-9EA6750F133F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <t>RS.13.00</t>
   </si>
   <si>
-    <t>MINIMUM CHARGES FOR DAY RENT 
-(DAY RENTAL AND KM BASIS)</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -178,6 +174,12 @@
   </si>
   <si>
     <t>DAY RENTAL AND KM BASIS</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MINIMUM CHARGES FOR DAY RENT (DAY RENTAL AND KM BASIS)&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -364,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A6DB22-A4BE-4E04-A6B8-660E6FACD36A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -697,12 +699,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -714,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350F2C4-2160-4AB2-B70A-EE9099E7D9A7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -742,7 +744,7 @@
     </row>
     <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -753,7 +755,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>

--- a/assets/dataFiles/Minimum Charges Day Rent (KM Basis).xlsx
+++ b/assets/dataFiles/Minimum Charges Day Rent (KM Basis).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC85E9E-C115-4028-ABBE-A47C84B2D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F6DE8-9204-4251-8154-760DFFCED749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D1699FA9-CFAB-461D-883D-9EA6750F133F}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,32 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Cab Type</t>
   </si>
   <si>
-    <t>Day/ Rent</t>
-  </si>
-  <si>
     <t>Free kms / day</t>
   </si>
   <si>
-    <t>RATE / KMS (after free kms)</t>
-  </si>
-  <si>
-    <t>Driver Beta</t>
-  </si>
-  <si>
     <t>BOOK</t>
   </si>
   <si>
     <t>INDICA NON A/C</t>
   </si>
   <si>
-    <t>RS.1400</t>
-  </si>
-  <si>
     <t>100 kms</t>
   </si>
   <si>
@@ -77,18 +64,12 @@
     <t>INDICA</t>
   </si>
   <si>
-    <t>RS.1500</t>
-  </si>
-  <si>
     <t>RS.6.00</t>
   </si>
   <si>
     <t>INDIGO</t>
   </si>
   <si>
-    <t>RS.1600</t>
-  </si>
-  <si>
     <t>RS.6.50</t>
   </si>
   <si>
@@ -98,48 +79,30 @@
     <t>TOYOTA EITOS</t>
   </si>
   <si>
-    <t>RS.1700</t>
-  </si>
-  <si>
     <t>SWIFT DIZER</t>
   </si>
   <si>
     <t>TAVERA NON A/C</t>
   </si>
   <si>
-    <t>RS.1900</t>
-  </si>
-  <si>
     <t>RS.7.00</t>
   </si>
   <si>
     <t>TAVERA</t>
   </si>
   <si>
-    <t>RS.2000</t>
-  </si>
-  <si>
     <t>XYLO</t>
   </si>
   <si>
-    <t>RS.2100</t>
-  </si>
-  <si>
     <t>INNOVA</t>
   </si>
   <si>
-    <t>RS.2400</t>
-  </si>
-  <si>
     <t>RS.8.00</t>
   </si>
   <si>
     <t>TEMPO TRAVELLER NON A/C</t>
   </si>
   <si>
-    <t>RS.2800</t>
-  </si>
-  <si>
     <t>RS.10.00</t>
   </si>
   <si>
@@ -149,22 +112,13 @@
     <t>TEMPO TRAVELLER</t>
   </si>
   <si>
-    <t>RS.3000</t>
-  </si>
-  <si>
     <t>RS.12.00</t>
   </si>
   <si>
     <t>MAXI CABS</t>
   </si>
   <si>
-    <t>RS.3500</t>
-  </si>
-  <si>
     <t>RS.13.00</t>
-  </si>
-  <si>
-    <t>S.No</t>
   </si>
   <si>
     <t xml:space="preserve">MINIMUM CHARGES FOR DAY RENT </t>
@@ -180,6 +134,48 @@
 &lt;h5&gt;Info&lt;/h5&gt;
 &lt;p&gt;MINIMUM CHARGES FOR DAY RENT (DAY RENTAL AND KM BASIS)&lt;/p&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Day Rent</t>
+  </si>
+  <si>
+    <t>Rate/km (after free kms)</t>
+  </si>
+  <si>
+    <t>Driver Batta</t>
+  </si>
+  <si>
+    <t>Rs. 1400/-</t>
+  </si>
+  <si>
+    <t>Rs. 1500/-</t>
+  </si>
+  <si>
+    <t>Rs. 1600/-</t>
+  </si>
+  <si>
+    <t>Rs. 1700/-</t>
+  </si>
+  <si>
+    <t>Rs. 1900/-</t>
+  </si>
+  <si>
+    <t>Rs. 2000/-</t>
+  </si>
+  <si>
+    <t>Rs. 2100/-</t>
+  </si>
+  <si>
+    <t>Rs. 2400/-</t>
+  </si>
+  <si>
+    <t>Rs. 2800/-</t>
+  </si>
+  <si>
+    <t>Rs. 3000/-</t>
+  </si>
+  <si>
+    <t>Rs. 3500/-</t>
   </si>
 </sst>
 </file>
@@ -192,13 +188,6 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,8 +207,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,117 +264,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,19 +618,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -717,368 +643,324 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
+      <c r="E16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
